--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cthrc1-Ror2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cthrc1-Ror2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Cthrc1</t>
+  </si>
+  <si>
+    <t>Ror2</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Cthrc1</t>
-  </si>
-  <si>
-    <t>Ror2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.4135925</v>
+        <v>0.8141179999999999</v>
       </c>
       <c r="H2">
-        <v>4.827185</v>
+        <v>1.628236</v>
       </c>
       <c r="I2">
-        <v>0.1006166576043813</v>
+        <v>0.03711595173929667</v>
       </c>
       <c r="J2">
-        <v>0.07006619804477368</v>
+        <v>0.02558673725508277</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.0552105</v>
+        <v>0.071358</v>
       </c>
       <c r="N2">
-        <v>0.110421</v>
+        <v>0.142716</v>
       </c>
       <c r="O2">
-        <v>0.01579120108286445</v>
+        <v>0.01919591193090569</v>
       </c>
       <c r="P2">
-        <v>0.01113815545262342</v>
+        <v>0.01411929935366186</v>
       </c>
       <c r="Q2">
-        <v>0.13325564872125</v>
+        <v>0.058093832244</v>
       </c>
       <c r="R2">
-        <v>0.533022594885</v>
+        <v>0.232375328976</v>
       </c>
       <c r="S2">
-        <v>0.001588857872516508</v>
+        <v>0.0007124745408192849</v>
       </c>
       <c r="T2">
-        <v>0.0007804082057969886</v>
+        <v>0.0003612668027880058</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.4135925</v>
+        <v>0.8141179999999999</v>
       </c>
       <c r="H3">
-        <v>4.827185</v>
+        <v>1.628236</v>
       </c>
       <c r="I3">
-        <v>0.1006166576043813</v>
+        <v>0.03711595173929667</v>
       </c>
       <c r="J3">
-        <v>0.07006619804477368</v>
+        <v>0.02558673725508277</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.967055</v>
       </c>
       <c r="O3">
-        <v>0.7595739188695423</v>
+        <v>0.7144019644080171</v>
       </c>
       <c r="P3">
-        <v>0.8036360573586609</v>
+        <v>0.7882033865305114</v>
       </c>
       <c r="Q3">
-        <v>6.409741398362501</v>
+        <v>2.16204096083</v>
       </c>
       <c r="R3">
-        <v>38.458448390175</v>
+        <v>12.97224576498</v>
       </c>
       <c r="S3">
-        <v>0.07642578892011487</v>
+        <v>0.0265157088334267</v>
       </c>
       <c r="T3">
-        <v>0.05630772315081304</v>
+        <v>0.02016755295472264</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.4135925</v>
+        <v>0.8141179999999999</v>
       </c>
       <c r="H4">
-        <v>4.827185</v>
+        <v>1.628236</v>
       </c>
       <c r="I4">
-        <v>0.1006166576043813</v>
+        <v>0.03711595173929667</v>
       </c>
       <c r="J4">
-        <v>0.07006619804477368</v>
+        <v>0.02558673725508277</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5198769999999999</v>
+        <v>0.9728370000000001</v>
       </c>
       <c r="N4">
-        <v>1.039754</v>
+        <v>1.945674</v>
       </c>
       <c r="O4">
-        <v>0.1486942202181889</v>
+        <v>0.2617014683024538</v>
       </c>
       <c r="P4">
-        <v>0.1048798841206565</v>
+        <v>0.1924910567184946</v>
       </c>
       <c r="Q4">
-        <v>1.2547712281225</v>
+        <v>0.7920041127659999</v>
       </c>
       <c r="R4">
-        <v>5.019084912489999</v>
+        <v>3.168016451064</v>
       </c>
       <c r="S4">
-        <v>0.01496111544344399</v>
+        <v>0.009713299067616955</v>
       </c>
       <c r="T4">
-        <v>0.007348534731710833</v>
+        <v>0.004925218092209356</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.4135925</v>
+        <v>0.8141179999999999</v>
       </c>
       <c r="H5">
-        <v>4.827185</v>
+        <v>1.628236</v>
       </c>
       <c r="I5">
-        <v>0.1006166576043813</v>
+        <v>0.03711595173929667</v>
       </c>
       <c r="J5">
-        <v>0.07006619804477368</v>
+        <v>0.02558673725508277</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.26551</v>
+        <v>0.017474</v>
       </c>
       <c r="N5">
-        <v>0.7965300000000001</v>
+        <v>0.052422</v>
       </c>
       <c r="O5">
-        <v>0.07594065982940454</v>
+        <v>0.004700655358623364</v>
       </c>
       <c r="P5">
-        <v>0.08034590306805893</v>
+        <v>0.005186257397332197</v>
       </c>
       <c r="Q5">
-        <v>0.6408329446750001</v>
+        <v>0.014225897932</v>
       </c>
       <c r="R5">
-        <v>3.84499766805</v>
+        <v>0.085355387592</v>
       </c>
       <c r="S5">
-        <v>0.007640895368305992</v>
+        <v>0.0001744692974337311</v>
       </c>
       <c r="T5">
-        <v>0.005629531956452806</v>
+        <v>0.0001326994053627683</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>59.301109</v>
       </c>
       <c r="I6">
-        <v>0.8240384930780011</v>
+        <v>0.9011867647895317</v>
       </c>
       <c r="J6">
-        <v>0.8607507786564448</v>
+        <v>0.9318808175952528</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.0552105</v>
+        <v>0.071358</v>
       </c>
       <c r="N6">
-        <v>0.110421</v>
+        <v>0.142716</v>
       </c>
       <c r="O6">
-        <v>0.01579120108286445</v>
+        <v>0.01919591193090569</v>
       </c>
       <c r="P6">
-        <v>0.01113815545262342</v>
+        <v>0.01411929935366186</v>
       </c>
       <c r="Q6">
-        <v>1.0913479594815</v>
+        <v>1.410536178674</v>
       </c>
       <c r="R6">
-        <v>6.548087756889</v>
+        <v>8.463217072043999</v>
       </c>
       <c r="S6">
-        <v>0.01301255754421532</v>
+        <v>0.01729910177019767</v>
       </c>
       <c r="T6">
-        <v>0.009587175978642138</v>
+        <v>0.01315750422556253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>59.301109</v>
       </c>
       <c r="I7">
-        <v>0.8240384930780011</v>
+        <v>0.9011867647895317</v>
       </c>
       <c r="J7">
-        <v>0.8607507786564448</v>
+        <v>0.9318808175952528</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>7.967055</v>
       </c>
       <c r="O7">
-        <v>0.7595739188695423</v>
+        <v>0.7144019644080171</v>
       </c>
       <c r="P7">
-        <v>0.8036360573586609</v>
+        <v>0.7882033865305114</v>
       </c>
       <c r="Q7">
         <v>52.49502188488834</v>
@@ -883,10 +883,10 @@
         <v>472.455196963995</v>
       </c>
       <c r="S7">
-        <v>0.6259181474866096</v>
+        <v>0.6438095950641471</v>
       </c>
       <c r="T7">
-        <v>0.6917303621278628</v>
+        <v>0.7345116162713999</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>59.301109</v>
       </c>
       <c r="I8">
-        <v>0.8240384930780011</v>
+        <v>0.9011867647895317</v>
       </c>
       <c r="J8">
-        <v>0.8607507786564448</v>
+        <v>0.9318808175952528</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5198769999999999</v>
+        <v>0.9728370000000001</v>
       </c>
       <c r="N8">
-        <v>1.039754</v>
+        <v>1.945674</v>
       </c>
       <c r="O8">
-        <v>0.1486942202181889</v>
+        <v>0.2617014683024538</v>
       </c>
       <c r="P8">
-        <v>0.1048798841206565</v>
+        <v>0.1924910567184946</v>
       </c>
       <c r="Q8">
-        <v>10.27642754786433</v>
+        <v>19.230104325411</v>
       </c>
       <c r="R8">
-        <v>61.65856528718599</v>
+        <v>115.380625952466</v>
       </c>
       <c r="S8">
-        <v>0.1225297611580048</v>
+        <v>0.2358418995601586</v>
       </c>
       <c r="T8">
-        <v>0.09027544192225279</v>
+        <v>0.1793787233146049</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>59.301109</v>
       </c>
       <c r="I9">
-        <v>0.8240384930780011</v>
+        <v>0.9011867647895317</v>
       </c>
       <c r="J9">
-        <v>0.8607507786564448</v>
+        <v>0.9318808175952528</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.26551</v>
+        <v>0.017474</v>
       </c>
       <c r="N9">
-        <v>0.7965300000000001</v>
+        <v>0.052422</v>
       </c>
       <c r="O9">
-        <v>0.07594065982940454</v>
+        <v>0.004700655358623364</v>
       </c>
       <c r="P9">
-        <v>0.08034590306805893</v>
+        <v>0.005186257397332197</v>
       </c>
       <c r="Q9">
-        <v>5.248345816863334</v>
+        <v>0.3454091928886667</v>
       </c>
       <c r="R9">
-        <v>47.23511235177</v>
+        <v>3.108682735998</v>
       </c>
       <c r="S9">
-        <v>0.06257802688917161</v>
+        <v>0.004236168395028366</v>
       </c>
       <c r="T9">
-        <v>0.06915779862768696</v>
+        <v>0.004832973783685355</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.655778</v>
+        <v>1.353296</v>
       </c>
       <c r="H10">
-        <v>1.311556</v>
+        <v>2.706592</v>
       </c>
       <c r="I10">
-        <v>0.02733775087985481</v>
+        <v>0.06169728347117155</v>
       </c>
       <c r="J10">
-        <v>0.01903712877024833</v>
+        <v>0.04253244514966441</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.0552105</v>
+        <v>0.071358</v>
       </c>
       <c r="N10">
-        <v>0.110421</v>
+        <v>0.142716</v>
       </c>
       <c r="O10">
-        <v>0.01579120108286445</v>
+        <v>0.01919591193090569</v>
       </c>
       <c r="P10">
-        <v>0.01113815545262342</v>
+        <v>0.01411929935366186</v>
       </c>
       <c r="Q10">
-        <v>0.036205831269</v>
+        <v>0.096568495968</v>
       </c>
       <c r="R10">
-        <v>0.144823325076</v>
+        <v>0.386273983872</v>
       </c>
       <c r="S10">
-        <v>0.0004316959212970418</v>
+        <v>0.001184335619888732</v>
       </c>
       <c r="T10">
-        <v>0.0002120384996146357</v>
+        <v>0.0006005283253113151</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.655778</v>
+        <v>1.353296</v>
       </c>
       <c r="H11">
-        <v>1.311556</v>
+        <v>2.706592</v>
       </c>
       <c r="I11">
-        <v>0.02733775087985481</v>
+        <v>0.06169728347117155</v>
       </c>
       <c r="J11">
-        <v>0.01903712877024833</v>
+        <v>0.04253244514966441</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>7.967055</v>
       </c>
       <c r="O11">
-        <v>0.7595739188695423</v>
+        <v>0.7144019644080171</v>
       </c>
       <c r="P11">
-        <v>0.8036360573586609</v>
+        <v>0.7882033865305114</v>
       </c>
       <c r="Q11">
-        <v>1.74153979793</v>
+        <v>3.59392788776</v>
       </c>
       <c r="R11">
-        <v>10.44923878758</v>
+        <v>21.56356732656</v>
       </c>
       <c r="S11">
-        <v>0.0207650425688906</v>
+        <v>0.04407666051044324</v>
       </c>
       <c r="T11">
-        <v>0.0152989231083515</v>
+        <v>0.03352421730438871</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.655778</v>
+        <v>1.353296</v>
       </c>
       <c r="H12">
-        <v>1.311556</v>
+        <v>2.706592</v>
       </c>
       <c r="I12">
-        <v>0.02733775087985481</v>
+        <v>0.06169728347117155</v>
       </c>
       <c r="J12">
-        <v>0.01903712877024833</v>
+        <v>0.04253244514966441</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5198769999999999</v>
+        <v>0.9728370000000001</v>
       </c>
       <c r="N12">
-        <v>1.039754</v>
+        <v>1.945674</v>
       </c>
       <c r="O12">
-        <v>0.1486942202181889</v>
+        <v>0.2617014683024538</v>
       </c>
       <c r="P12">
-        <v>0.1048798841206565</v>
+        <v>0.1924910567184946</v>
       </c>
       <c r="Q12">
-        <v>0.3409238993059999</v>
+        <v>1.316536420752</v>
       </c>
       <c r="R12">
-        <v>1.363695597224</v>
+        <v>5.266145683008</v>
       </c>
       <c r="S12">
-        <v>0.004064965549599119</v>
+        <v>0.01614626967467831</v>
       </c>
       <c r="T12">
-        <v>0.001996611859413661</v>
+        <v>0.008187115311680314</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.655778</v>
+        <v>1.353296</v>
       </c>
       <c r="H13">
-        <v>1.311556</v>
+        <v>2.706592</v>
       </c>
       <c r="I13">
-        <v>0.02733775087985481</v>
+        <v>0.06169728347117155</v>
       </c>
       <c r="J13">
-        <v>0.01903712877024833</v>
+        <v>0.04253244514966441</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.26551</v>
+        <v>0.017474</v>
       </c>
       <c r="N13">
-        <v>0.7965300000000001</v>
+        <v>0.052422</v>
       </c>
       <c r="O13">
-        <v>0.07594065982940454</v>
+        <v>0.004700655358623364</v>
       </c>
       <c r="P13">
-        <v>0.08034590306805893</v>
+        <v>0.005186257397332197</v>
       </c>
       <c r="Q13">
-        <v>0.17411561678</v>
+        <v>0.023647494304</v>
       </c>
       <c r="R13">
-        <v>1.04469370068</v>
+        <v>0.141884965824</v>
       </c>
       <c r="S13">
-        <v>0.002076046840068059</v>
+        <v>0.0002900176661612673</v>
       </c>
       <c r="T13">
-        <v>0.001529555302868528</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1.151594333333333</v>
-      </c>
-      <c r="H14">
-        <v>3.454783</v>
-      </c>
-      <c r="I14">
-        <v>0.04800709843776271</v>
-      </c>
-      <c r="J14">
-        <v>0.05014589452853316</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>0.0552105</v>
-      </c>
-      <c r="N14">
-        <v>0.110421</v>
-      </c>
-      <c r="O14">
-        <v>0.01579120108286445</v>
-      </c>
-      <c r="P14">
-        <v>0.01113815545262342</v>
-      </c>
-      <c r="Q14">
-        <v>0.06358009894050001</v>
-      </c>
-      <c r="R14">
-        <v>0.381480593643</v>
-      </c>
-      <c r="S14">
-        <v>0.0007580897448355785</v>
-      </c>
-      <c r="T14">
-        <v>0.0005585327685696606</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.151594333333333</v>
-      </c>
-      <c r="H15">
-        <v>3.454783</v>
-      </c>
-      <c r="I15">
-        <v>0.04800709843776271</v>
-      </c>
-      <c r="J15">
-        <v>0.05014589452853316</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2.655685</v>
-      </c>
-      <c r="N15">
-        <v>7.967055</v>
-      </c>
-      <c r="O15">
-        <v>0.7595739188695423</v>
-      </c>
-      <c r="P15">
-        <v>0.8036360573586609</v>
-      </c>
-      <c r="Q15">
-        <v>3.058271797118334</v>
-      </c>
-      <c r="R15">
-        <v>27.524446174065</v>
-      </c>
-      <c r="S15">
-        <v>0.0364649398939273</v>
-      </c>
-      <c r="T15">
-        <v>0.04029904897163364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.151594333333333</v>
-      </c>
-      <c r="H16">
-        <v>3.454783</v>
-      </c>
-      <c r="I16">
-        <v>0.04800709843776271</v>
-      </c>
-      <c r="J16">
-        <v>0.05014589452853316</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.5198769999999999</v>
-      </c>
-      <c r="N16">
-        <v>1.039754</v>
-      </c>
-      <c r="O16">
-        <v>0.1486942202181889</v>
-      </c>
-      <c r="P16">
-        <v>0.1048798841206565</v>
-      </c>
-      <c r="Q16">
-        <v>0.5986874072303333</v>
-      </c>
-      <c r="R16">
-        <v>3.592124443381999</v>
-      </c>
-      <c r="S16">
-        <v>0.00713837806714096</v>
-      </c>
-      <c r="T16">
-        <v>0.005259295607279221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.151594333333333</v>
-      </c>
-      <c r="H17">
-        <v>3.454783</v>
-      </c>
-      <c r="I17">
-        <v>0.04800709843776271</v>
-      </c>
-      <c r="J17">
-        <v>0.05014589452853316</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.26551</v>
-      </c>
-      <c r="N17">
-        <v>0.7965300000000001</v>
-      </c>
-      <c r="O17">
-        <v>0.07594065982940454</v>
-      </c>
-      <c r="P17">
-        <v>0.08034590306805893</v>
-      </c>
-      <c r="Q17">
-        <v>0.3057598114433334</v>
-      </c>
-      <c r="R17">
-        <v>2.75183830299</v>
-      </c>
-      <c r="S17">
-        <v>0.003645690731858876</v>
-      </c>
-      <c r="T17">
-        <v>0.004029017181050632</v>
+        <v>0.000220584208284073</v>
       </c>
     </row>
   </sheetData>
